--- a/data/Dados Educacionais/Censo 2006/Filtro_2006.xlsx
+++ b/data/Dados Educacionais/Censo 2006/Filtro_2006.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\Pasta Doutorado\4. Projetos de Pesquisa\4 - Trabalho Paula - PNAE Alimentação Infantil\3 -  Painel\Dados Educacionais\Censo Educacional 2006\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\Pasta Doutorado\4. Projetos de Pesquisa\4 - Trabalho Paula - PNAE Alimentação Infantil\3 -  Painel\Bases de Dados\Dados INEP - Educacionais\Censo Educacional 2006\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078C1BB8-6F73-483D-8278-AEFAAAA575A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4CA3A1-07B0-447B-82AF-59EC4A42E97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
   <si>
     <t>TP_DEPENDENCIA</t>
   </si>
@@ -93,9 +93,6 @@
     <t>ENER_PUB</t>
   </si>
   <si>
-    <t>MERE_ESC</t>
-  </si>
-  <si>
     <t>DPE119</t>
   </si>
   <si>
@@ -234,12 +231,6 @@
     <t>Matrículas na 3ª Série - Turno Diurno</t>
   </si>
   <si>
-    <t>Matrículas na 4ª Série - Turno Diurno</t>
-  </si>
-  <si>
-    <t>DEM11B</t>
-  </si>
-  <si>
     <t>NEM118</t>
   </si>
   <si>
@@ -249,9 +240,6 @@
     <t>NEM11A</t>
   </si>
   <si>
-    <t>NEM11B</t>
-  </si>
-  <si>
     <t>Matrículas da 1ª a 2ª Séries na EJA - Turno Diurno</t>
   </si>
   <si>
@@ -318,18 +306,6 @@
     <t>QT_MAT_ESP</t>
   </si>
   <si>
-    <t>Número de alunos com atendimento educacional especializado em classe hospitalar</t>
-  </si>
-  <si>
-    <t>HOSPIT</t>
-  </si>
-  <si>
-    <t>DOMIC</t>
-  </si>
-  <si>
-    <t>Número de alunos com atendimento educacional especializado em atendimento domiciliar</t>
-  </si>
-  <si>
     <t>QT_MAT_ESP_CC</t>
   </si>
   <si>
@@ -408,9 +384,6 @@
     <t>Dependências Existentes / Cozinha</t>
   </si>
   <si>
-    <t>A Escola Oferece Alimentação Escolar aos Alunos</t>
-  </si>
-  <si>
     <t>Descrição das variáveis  no censo de 2016</t>
   </si>
   <si>
@@ -424,6 +397,18 @@
   </si>
   <si>
     <t>Variáveis</t>
+  </si>
+  <si>
+    <t>QT_MAT_PROF</t>
+  </si>
+  <si>
+    <t>Número de Matrículas na Educação Profissional</t>
+  </si>
+  <si>
+    <t>Número de Matrículas na Educação Profissional Técnica - Modo profissionalizante de ensino correspondente às turmas de cursos técnicos de nível médio nas formas articuladas (integrada ou concomitante), ou subsequente ao ensino médio e de normal/magistério</t>
+  </si>
+  <si>
+    <t>QT_MAT_PROF_TEC</t>
   </si>
 </sst>
 </file>
@@ -502,13 +487,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,16 +808,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF18C43D-B176-4992-B4E9-1D77FC0C190A}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="84" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="84" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="137.42578125" bestFit="1" customWidth="1"/>
@@ -840,19 +825,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -860,16 +845,16 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -878,13 +863,13 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -893,13 +878,13 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -908,13 +893,13 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -925,7 +910,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -936,22 +921,18 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -962,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -973,60 +954,60 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>113</v>
+      <c r="E11" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>112</v>
+      <c r="E13" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1036,295 +1017,299 @@
         <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>110</v>
+      <c r="E16" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>109</v>
+      <c r="E24" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>108</v>
+      <c r="E32" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="C40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -1334,12 +1319,8 @@
       <c r="C41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1349,30 +1330,30 @@
       <c r="C42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -1382,8 +1363,8 @@
       <c r="C45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -1393,139 +1374,106 @@
       <c r="C46" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>106</v>
+      <c r="C49" s="1"/>
+      <c r="D49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="1"/>
+      <c r="D50" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="7"/>
+      <c r="E50" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>104</v>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="8"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="8"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="8"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="8"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="8"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E39:E46"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="E24:E31"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="D47:D48"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D16:D23"/>
     <mergeCell ref="D24:D31"/>
-    <mergeCell ref="D32:D39"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E41:E48"/>
-    <mergeCell ref="E32:E39"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="D39:D46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/data/Dados Educacionais/Censo 2006/Filtro_2006.xlsx
+++ b/data/Dados Educacionais/Censo 2006/Filtro_2006.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\Pasta Doutorado\4. Projetos de Pesquisa\4 - Trabalho Paula - PNAE Alimentação Infantil\3 -  Painel\Bases de Dados\Dados INEP - Educacionais\Censo Educacional 2006\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dca3508b15c96f8f/- Geral^MWork/Consultorias/Projeto Luan e Luiz de Alimentação Infantil/GIT/Projeto-Alimentacao-Infantil/data/Dados Educacionais/Censo 2006/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4CA3A1-07B0-447B-82AF-59EC4A42E97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7C4CA3A1-07B0-447B-82AF-59EC4A42E97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E30AFD5-EB96-4DED-B9E2-940F9226B9D7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -810,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF18C43D-B176-4992-B4E9-1D77FC0C190A}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -818,7 +819,7 @@
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="84" customWidth="1"/>
+    <col min="3" max="3" width="80.5703125" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="137.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1477,4 +1478,16 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F593633D-2FBC-4078-887E-16BBEADC5E81}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/data/Dados Educacionais/Censo 2006/Filtro_2006.xlsx
+++ b/data/Dados Educacionais/Censo 2006/Filtro_2006.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dca3508b15c96f8f/- Geral^MWork/Consultorias/Projeto Luan e Luiz de Alimentação Infantil/GIT/Projeto-Alimentacao-Infantil/data/Dados Educacionais/Censo 2006/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\Pasta Doutorado\4. Projetos de Pesquisa\4 - Trabalho Paula - PNAE Alimentação Infantil\3 -  Painel\Bases de Dados\Dados INEP - Educacionais\Censo Educacional 2006\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7C4CA3A1-07B0-447B-82AF-59EC4A42E97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E30AFD5-EB96-4DED-B9E2-940F9226B9D7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A5754-409C-49A7-9888-071CE0A7CF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="134">
   <si>
     <t>TP_DEPENDENCIA</t>
   </si>
@@ -410,6 +409,24 @@
   </si>
   <si>
     <t>QT_MAT_PROF_TEC</t>
+  </si>
+  <si>
+    <t>CODESC</t>
+  </si>
+  <si>
+    <t>Código da Escola</t>
+  </si>
+  <si>
+    <t>CO_ENTIDADE</t>
+  </si>
+  <si>
+    <t>NOMESC</t>
+  </si>
+  <si>
+    <t>Nome da Escola</t>
+  </si>
+  <si>
+    <t>NO_ENTIDADE</t>
   </si>
 </sst>
 </file>
@@ -809,17 +826,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF18C43D-B176-4992-B4E9-1D77FC0C190A}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="80.5703125" customWidth="1"/>
+    <col min="3" max="3" width="84" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="137.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -860,69 +877,77 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
+        <v>129</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>132</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -930,10 +955,10 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -941,10 +966,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -952,542 +977,552 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>103</v>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>102</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>101</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>100</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="C38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>99</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>98</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>125</v>
+      <c r="D52" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E39:E46"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="D39:D46"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E41:E48"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="E26:E33"/>
+    <mergeCell ref="E18:E25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F593633D-2FBC-4078-887E-16BBEADC5E81}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/data/Dados Educacionais/Censo 2006/Filtro_2006.xlsx
+++ b/data/Dados Educacionais/Censo 2006/Filtro_2006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\Pasta Doutorado\4. Projetos de Pesquisa\4 - Trabalho Paula - PNAE Alimentação Infantil\3 -  Painel\Bases de Dados\Dados INEP - Educacionais\Censo Educacional 2006\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A5754-409C-49A7-9888-071CE0A7CF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F285052D-964E-4399-B04C-B69BE2FA9FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AAF30C40-2A06-4844-87F2-4A18CBD41D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
   <si>
     <t>TP_DEPENDENCIA</t>
   </si>
@@ -409,24 +409,6 @@
   </si>
   <si>
     <t>QT_MAT_PROF_TEC</t>
-  </si>
-  <si>
-    <t>CODESC</t>
-  </si>
-  <si>
-    <t>Código da Escola</t>
-  </si>
-  <si>
-    <t>CO_ENTIDADE</t>
-  </si>
-  <si>
-    <t>NOMESC</t>
-  </si>
-  <si>
-    <t>Nome da Escola</t>
-  </si>
-  <si>
-    <t>NO_ENTIDADE</t>
   </si>
 </sst>
 </file>
@@ -826,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF18C43D-B176-4992-B4E9-1D77FC0C190A}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,77 +859,69 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -955,10 +929,10 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -966,10 +940,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,551 +951,529 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>107</v>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>104</v>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>102</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>101</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>100</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="C40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>99</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>98</v>
+      <c r="C49" s="1"/>
+      <c r="D49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>96</v>
+      <c r="D52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E39:E46"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="E24:E31"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="D26:D33"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E41:E48"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="E26:E33"/>
-    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="D39:D46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
